--- a/TaskManager/wwwroot/uploads/tapsiriqlar protokolu.xlsx
+++ b/TaskManager/wwwroot/uploads/tapsiriqlar protokolu.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Görüş iştirakçıları</t>
   </si>
@@ -236,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -385,11 +385,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,6 +485,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,7 +854,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,6 +1013,9 @@
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="15">
         <v>1</v>
       </c>
